--- a/DataBase/SCPI.xlsx
+++ b/DataBase/SCPI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anatel365-my.sharepoint.com/personal/eric_anatel_gov_br/Documents/appAnalise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anatel365-my.sharepoint.com/personal/eric_anatel_gov_br/Documents/appColeta/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_714D175F8D6B346C7B84D3E5FD012D16618B03F1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{47CAB4D7-2457-45F5-B6A5-BA71E6301675}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_714D175F8D6B346C7B84D3E5FD012D16618B03F1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAC0CC07-890B-4353-A46C-3B6C098F6E1F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Instr</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>[551,551.001]</t>
+  </si>
+  <si>
+    <t>CALCulate:IFPan:AVERage:TYPE %s;:DETector:FUNCtion %s;:FREQuency:PSCan:START %d;:FREQuency:PSCan:STOP %d;:PSCan:STEP %d;:CALCulate:IFPan:SELectivity %s;:INPut:ATTenuation %d;:INPut:ATTenuation:AUTO %d'</t>
+  </si>
+  <si>
+    <t>[1,4,6,7,9,11,15,14]</t>
+  </si>
+  <si>
+    <t>CALCulate:IFPan:AVERage:TYPE?;:DETector:FUNCtion?;:FREQuency:PSCan:START?;:FREQuency:PSCan:STOP?;:PSCan:STEP?;:CALCulate:IFPan:BANDwidth?;:CALCulate:IFPan:SELectivity?;:INPut:ATTenuation:AUTO?;:INPut:ATTenuation?'</t>
+  </si>
+  <si>
+    <t>[1,4,6,7,9,10,11,14,15]</t>
   </si>
 </sst>
 </file>
@@ -264,12 +276,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -351,27 +366,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{163FEC9E-824B-40E8-A871-FB3CB9262E2B}" name="Tabela1" displayName="Tabela1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{163FEC9E-824B-40E8-A871-FB3CB9262E2B}" name="Tabela1" displayName="Tabela1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R5" xr:uid="{43E0688A-A9AA-43A1-99E2-773CFEB96690}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9028BAC0-C72E-44E5-A6BD-5AC2C9FD1C07}" name="Instr" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{25FB2B62-4340-4402-82D1-94ADAE7612B5}" name="StartUp" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5541AAB4-6D08-4FF3-A3F4-98046C46EBA7}" name="scpiGeneral" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{7CD69A06-07B7-4AC5-9B2A-C2E935566775}" name="scpiGeneral_IDs" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{5B0854E7-4291-4823-A576-21CDDFF1DD80}" name="scpiQuery" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{2B1DF325-2860-405F-8BA0-DA7D602998F9}" name="scpiQuery_IDs" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{41B1D646-9085-4C1C-8EC8-35A4E04D4144}" name="scpiAttenuation" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{25578C8B-4299-47A8-BE2A-DC2FC9A3CF39}" name="scpiDataPoints" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{824B1887-C0FE-49A4-8F87-7BC1215BD285}" name="scpiTraceData" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{50EDBE46-6BDF-4E7B-8EEE-6FB706672725}" name="scpiGPS" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{EF8B4299-5D0F-4A4C-AC7B-7A6993E8E77F}" name="Trace_Values" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{5DFAB192-9DF9-40C1-8CE3-553E76868D9C}" name="AverageMode_Values" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{ABADAFE8-B5B9-4887-831A-66D3F9FB4F0A}" name="Detector_Values" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{8D179F1C-34DB-48A8-BAD5-F5115C5C9435}" name="LevelUnit_Values" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{A2DF5476-C40D-4767-A4CE-0EA355928E63}" name="StepWidth_Values" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{2408C44C-A417-4960-94FB-7EBEE33B223F}" name="DataPoints_Limits" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{193396C2-8DDE-424D-8CA4-B0A15428250B}" name="Resolution_Values" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{F56054D0-0CA8-4094-8124-CF4C27620F86}" name="Attenuation_Values" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9028BAC0-C72E-44E5-A6BD-5AC2C9FD1C07}" name="Instr" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{25FB2B62-4340-4402-82D1-94ADAE7612B5}" name="StartUp" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5541AAB4-6D08-4FF3-A3F4-98046C46EBA7}" name="scpiGeneral" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7CD69A06-07B7-4AC5-9B2A-C2E935566775}" name="scpiGeneral_IDs" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5B0854E7-4291-4823-A576-21CDDFF1DD80}" name="scpiQuery" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2B1DF325-2860-405F-8BA0-DA7D602998F9}" name="scpiQuery_IDs" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{41B1D646-9085-4C1C-8EC8-35A4E04D4144}" name="scpiAttenuation" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{25578C8B-4299-47A8-BE2A-DC2FC9A3CF39}" name="scpiDataPoints" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{824B1887-C0FE-49A4-8F87-7BC1215BD285}" name="scpiTraceData" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{50EDBE46-6BDF-4E7B-8EEE-6FB706672725}" name="scpiGPS" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{EF8B4299-5D0F-4A4C-AC7B-7A6993E8E77F}" name="Trace_Values" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5DFAB192-9DF9-40C1-8CE3-553E76868D9C}" name="AverageMode_Values" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{ABADAFE8-B5B9-4887-831A-66D3F9FB4F0A}" name="Detector_Values" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{8D179F1C-34DB-48A8-BAD5-F5115C5C9435}" name="LevelUnit_Values" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{A2DF5476-C40D-4767-A4CE-0EA355928E63}" name="StepWidth_Values" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{2408C44C-A417-4960-94FB-7EBEE33B223F}" name="DataPoints_Limits" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{193396C2-8DDE-424D-8CA4-B0A15428250B}" name="Resolution_Values" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{F56054D0-0CA8-4094-8124-CF4C27620F86}" name="Attenuation_Values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,7 +692,7 @@
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,24 +845,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
